--- a/biology/Botanique/Casasia/Casasia.xlsx
+++ b/biology/Botanique/Casasia/Casasia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Casasia est un genre de plante de la famille des Rubiaceae[2]. Ces buissons ou petits arbres sont endémiques des Caraïbes et une espèce se trouve également en Floride (C. clusiifolia)[3]. Certaines des 10 espèces de ce genre étaient auparavant placées dans d'autres genres comme Genipa, Gardenia ou Randia[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Casasia est un genre de plante de la famille des Rubiaceae. Ces buissons ou petits arbres sont endémiques des Caraïbes et une espèce se trouve également en Floride (C. clusiifolia). Certaines des 10 espèces de ce genre étaient auparavant placées dans d'autres genres comme Genipa, Gardenia ou Randia.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (2 novembre 2015)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (2 novembre 2015) :
 Casasia acunae M.Fernández Zeq. &amp; A.Borhidi
 Casasia calophylla A.Rich.
 Casasia clusiifolia (Jacq.) Urb.
@@ -550,9 +566,9 @@
 Casasia longipes Urb.
 Casasia nigrescens (Griseb.) C.Wright ex Rob.
 Casasia samuelssonii Urb. &amp; Ekman
-Selon ITIS      (2 novembre 2015)[5] :
+Selon ITIS      (2 novembre 2015) :
 Casasia clusiifolia (Jacq.) Urb.
-Selon World Checklist of Selected Plant Families (WCSP)  (2 novembre 2015)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (2 novembre 2015) :
 Casasia acunae M.Fernández &amp; Borhidi (1982)
 Casasia calophylla A.Rich. (1850)
 Casasia clusiifolia (Jacq.) Urb. (1908)
@@ -567,11 +583,11 @@
 sous-espèce Casasia nigrescens subsp. moaensis Borhidi &amp; O.Muñiz (1971 publ. 1972)
 sous-espèce Casasia nigrescens subsp. nigrescens
 Casasia samuelssonii Urb. &amp; Ekman (1932)
-Selon NCBI  (2 novembre 2015)[7] :
+Selon NCBI  (2 novembre 2015) :
 Casasia calophylla
 Casasia clusiifolia
 Casasia jacquinioides
-Selon The Plant List            (2 novembre 2015)[8] :
+Selon The Plant List            (2 novembre 2015) :
 Casasia acunae M.Fernández Zeq. &amp; A.Borhidi
 Casasia calophylla A.Rich.
 Casasia clusiifolia (Jacq.) Urb.
@@ -582,7 +598,7 @@
 Casasia longipes Urb.
 Casasia nigrescens (Griseb.) C.Wright ex Rob.
 Casasia samuelssonii Urb. &amp; Ekman
-Selon Tropicos                                           (2 novembre 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 novembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Casasia acunae M. Fernandez &amp; Borhidi
 Casasia calophylla A. Rich.
 Casasia chiapensis Miranda
